--- a/Examples/Ej1_UsosDia.xlsx
+++ b/Examples/Ej1_UsosDia.xlsx
@@ -1,24 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jmorales\Dropbox\Proyectos\BiciMad\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="20225"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23451" windowHeight="11340"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24200" windowHeight="12380"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="UsosDia" localSheetId="0">Hoja1!$A$2:$C$47</definedName>
+    <definedName name="UsosDia" localSheetId="0">Hoja1!$A$2:$D$47</definedName>
+    <definedName name="UsosDia_20171211" localSheetId="1">Sheet1!$A$1:$C$23</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
@@ -37,15 +37,40 @@
       </textFields>
     </textPr>
   </connection>
+  <connection id="2" name="UsosDia_20171211.csv" type="6" refreshedVersion="0" background="1" saveData="1">
+    <textPr fileType="mac" sourceFile="SSD:Users:javier:WorkSpace:BiciMad:datasets:UsosDia_20171211.csv" decimal="," thousands="." space="1" consecutive="1">
+      <textFields count="3">
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
 </connections>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -68,14 +93,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -92,9 +122,9 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -140,26 +170,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="es-ES"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -172,7 +182,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Hoja1!$C$1</c:f>
+              <c:f>Hoja1!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -200,157 +210,157 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="23"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5</c:v>
+                  <c:v>5.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6</c:v>
+                  <c:v>6.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7</c:v>
+                  <c:v>7.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8</c:v>
+                  <c:v>8.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>9</c:v>
+                  <c:v>9.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>10</c:v>
+                  <c:v>10.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>11</c:v>
+                  <c:v>11.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>12</c:v>
+                  <c:v>12.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>13</c:v>
+                  <c:v>13.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>14</c:v>
+                  <c:v>14.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>15</c:v>
+                  <c:v>15.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>16</c:v>
+                  <c:v>16.0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>17</c:v>
+                  <c:v>17.0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>18</c:v>
+                  <c:v>18.0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>19</c:v>
+                  <c:v>19.0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>20</c:v>
+                  <c:v>20.0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>21</c:v>
+                  <c:v>21.0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>22</c:v>
+                  <c:v>22.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Hoja1!$C$2:$C$24</c:f>
+              <c:f>Hoja1!$D$2:$D$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="23"/>
                 <c:pt idx="0">
-                  <c:v>386</c:v>
+                  <c:v>386.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>237</c:v>
+                  <c:v>237.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>148</c:v>
+                  <c:v>148.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>65</c:v>
+                  <c:v>65.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>65</c:v>
+                  <c:v>65.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>61</c:v>
+                  <c:v>61.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>101</c:v>
+                  <c:v>101.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>479</c:v>
+                  <c:v>479.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1156</c:v>
+                  <c:v>1156.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>956</c:v>
+                  <c:v>956.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>610</c:v>
+                  <c:v>610.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>481</c:v>
+                  <c:v>481.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>590</c:v>
+                  <c:v>590.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>679</c:v>
+                  <c:v>679.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>934</c:v>
+                  <c:v>934.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>916</c:v>
+                  <c:v>916.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>860</c:v>
+                  <c:v>860.0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>960</c:v>
+                  <c:v>960.0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1351</c:v>
+                  <c:v>1351.0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1355</c:v>
+                  <c:v>1355.0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1068</c:v>
+                  <c:v>1068.0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>790</c:v>
+                  <c:v>790.0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>482</c:v>
+                  <c:v>482.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-542E-4F44-934C-BF2D33394CA7}"/>
             </c:ext>
@@ -361,7 +371,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Hoja1!$D$1</c:f>
+              <c:f>Hoja1!$E$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -389,161 +399,250 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="23"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5</c:v>
+                  <c:v>5.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6</c:v>
+                  <c:v>6.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7</c:v>
+                  <c:v>7.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8</c:v>
+                  <c:v>8.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>9</c:v>
+                  <c:v>9.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>10</c:v>
+                  <c:v>10.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>11</c:v>
+                  <c:v>11.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>12</c:v>
+                  <c:v>12.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>13</c:v>
+                  <c:v>13.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>14</c:v>
+                  <c:v>14.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>15</c:v>
+                  <c:v>15.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>16</c:v>
+                  <c:v>16.0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>17</c:v>
+                  <c:v>17.0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>18</c:v>
+                  <c:v>18.0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>19</c:v>
+                  <c:v>19.0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>20</c:v>
+                  <c:v>20.0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>21</c:v>
+                  <c:v>21.0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>22</c:v>
+                  <c:v>22.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Hoja1!$D$2:$D$24</c:f>
+              <c:f>Hoja1!$E$2:$E$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="23"/>
                 <c:pt idx="0">
-                  <c:v>534</c:v>
+                  <c:v>534.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>263</c:v>
+                  <c:v>263.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>184</c:v>
+                  <c:v>184.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>86</c:v>
+                  <c:v>86.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>76</c:v>
+                  <c:v>76.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>70</c:v>
+                  <c:v>70.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>153</c:v>
+                  <c:v>153.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>577</c:v>
+                  <c:v>577.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1372</c:v>
+                  <c:v>1372.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1066</c:v>
+                  <c:v>1066.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>598</c:v>
+                  <c:v>598.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>500</c:v>
+                  <c:v>500.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>561</c:v>
+                  <c:v>561.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>727</c:v>
+                  <c:v>727.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1067</c:v>
+                  <c:v>1067.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1042</c:v>
+                  <c:v>1042.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>890</c:v>
+                  <c:v>890.0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1013</c:v>
+                  <c:v>1013.0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1429</c:v>
+                  <c:v>1429.0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1448</c:v>
+                  <c:v>1448.0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1234</c:v>
+                  <c:v>1234.0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>890</c:v>
+                  <c:v>890.0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>611</c:v>
+                  <c:v>611.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-542E-4F44-934C-BF2D33394CA7}"/>
             </c:ext>
           </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>dic-17</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$C$2:$C$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>141.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>48.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>60.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>60.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>201.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>667.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>606.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>367.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>309.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>318.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>504.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>611.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>590.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>592.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>587.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>746.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>686.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>520.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>412.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>259.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -553,12 +652,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="655642264"/>
-        <c:axId val="655646856"/>
+        <c:axId val="2110084328"/>
+        <c:axId val="2110088024"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="655642264"/>
+        <c:axId val="2110084328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -598,10 +698,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="655646856"/>
+        <c:crossAx val="2110088024"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -609,7 +709,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="655646856"/>
+        <c:axId val="2110088024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -657,10 +757,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="655642264"/>
+        <c:crossAx val="2110084328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -700,7 +800,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-ES"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -730,7 +830,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-ES"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1301,13 +1401,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>166008</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>125186</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>478972</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>43542</xdr:rowOff>
@@ -1334,6 +1434,10 @@
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="UsosDia" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="UsosDia_20171211" connectionId="2" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1379,7 +1483,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1414,7 +1518,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1591,7 +1695,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1599,28 +1703,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D47"/>
+  <dimension ref="A1:E47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P5" sqref="P5"/>
+      <selection activeCell="C2" sqref="C2:C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="10.3828125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="2.84375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4.84375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="2.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.5" customWidth="1"/>
+    <col min="4" max="4" width="4.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="C1">
+    <row r="1" spans="1:5">
+      <c r="C1" s="2">
+        <v>43070</v>
+      </c>
+      <c r="D1">
         <v>2017</v>
       </c>
-      <c r="D1">
+      <c r="E1">
         <v>2018</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:5">
       <c r="A2" s="1">
         <v>43005</v>
       </c>
@@ -1628,13 +1736,16 @@
         <v>0</v>
       </c>
       <c r="C2">
+        <v>141</v>
+      </c>
+      <c r="D2">
         <v>386</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>534</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:5">
       <c r="A3" s="1">
         <v>43005</v>
       </c>
@@ -1642,13 +1753,16 @@
         <v>1</v>
       </c>
       <c r="C3">
+        <v>48</v>
+      </c>
+      <c r="D3">
         <v>237</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>263</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:5">
       <c r="A4" s="1">
         <v>43005</v>
       </c>
@@ -1656,13 +1770,16 @@
         <v>2</v>
       </c>
       <c r="C4">
+        <v>60</v>
+      </c>
+      <c r="D4">
         <v>148</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>184</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:5">
       <c r="A5" s="1">
         <v>43005</v>
       </c>
@@ -1670,13 +1787,16 @@
         <v>3</v>
       </c>
       <c r="C5">
+        <v>12</v>
+      </c>
+      <c r="D5">
         <v>65</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>86</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:5">
       <c r="A6" s="1">
         <v>43005</v>
       </c>
@@ -1684,13 +1804,16 @@
         <v>4</v>
       </c>
       <c r="C6">
+        <v>11</v>
+      </c>
+      <c r="D6">
         <v>65</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>76</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:5">
       <c r="A7" s="1">
         <v>43005</v>
       </c>
@@ -1698,13 +1821,16 @@
         <v>5</v>
       </c>
       <c r="C7">
+        <v>10</v>
+      </c>
+      <c r="D7">
         <v>61</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>70</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:5">
       <c r="A8" s="1">
         <v>43005</v>
       </c>
@@ -1712,13 +1838,16 @@
         <v>6</v>
       </c>
       <c r="C8">
+        <v>60</v>
+      </c>
+      <c r="D8">
         <v>101</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>153</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:5">
       <c r="A9" s="1">
         <v>43005</v>
       </c>
@@ -1726,13 +1855,16 @@
         <v>7</v>
       </c>
       <c r="C9">
+        <v>201</v>
+      </c>
+      <c r="D9">
         <v>479</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>577</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:5">
       <c r="A10" s="1">
         <v>43005</v>
       </c>
@@ -1740,13 +1872,16 @@
         <v>8</v>
       </c>
       <c r="C10">
+        <v>667</v>
+      </c>
+      <c r="D10">
         <v>1156</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>1372</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:5">
       <c r="A11" s="1">
         <v>43005</v>
       </c>
@@ -1754,13 +1889,16 @@
         <v>9</v>
       </c>
       <c r="C11">
+        <v>606</v>
+      </c>
+      <c r="D11">
         <v>956</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>1066</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:5">
       <c r="A12" s="1">
         <v>43005</v>
       </c>
@@ -1768,13 +1906,16 @@
         <v>10</v>
       </c>
       <c r="C12">
+        <v>367</v>
+      </c>
+      <c r="D12">
         <v>610</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>598</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:5">
       <c r="A13" s="1">
         <v>43005</v>
       </c>
@@ -1782,13 +1923,16 @@
         <v>11</v>
       </c>
       <c r="C13">
+        <v>309</v>
+      </c>
+      <c r="D13">
         <v>481</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <v>500</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:5">
       <c r="A14" s="1">
         <v>43005</v>
       </c>
@@ -1796,13 +1940,16 @@
         <v>12</v>
       </c>
       <c r="C14">
+        <v>318</v>
+      </c>
+      <c r="D14">
         <v>590</v>
       </c>
-      <c r="D14">
+      <c r="E14">
         <v>561</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:5">
       <c r="A15" s="1">
         <v>43005</v>
       </c>
@@ -1810,13 +1957,16 @@
         <v>13</v>
       </c>
       <c r="C15">
+        <v>504</v>
+      </c>
+      <c r="D15">
         <v>679</v>
       </c>
-      <c r="D15">
+      <c r="E15">
         <v>727</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:5">
       <c r="A16" s="1">
         <v>43005</v>
       </c>
@@ -1824,13 +1974,16 @@
         <v>14</v>
       </c>
       <c r="C16">
+        <v>611</v>
+      </c>
+      <c r="D16">
         <v>934</v>
       </c>
-      <c r="D16">
+      <c r="E16">
         <v>1067</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:5">
       <c r="A17" s="1">
         <v>43005</v>
       </c>
@@ -1838,13 +1991,16 @@
         <v>15</v>
       </c>
       <c r="C17">
+        <v>590</v>
+      </c>
+      <c r="D17">
         <v>916</v>
       </c>
-      <c r="D17">
+      <c r="E17">
         <v>1042</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:5">
       <c r="A18" s="1">
         <v>43005</v>
       </c>
@@ -1852,13 +2008,16 @@
         <v>16</v>
       </c>
       <c r="C18">
+        <v>592</v>
+      </c>
+      <c r="D18">
         <v>860</v>
       </c>
-      <c r="D18">
+      <c r="E18">
         <v>890</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:5">
       <c r="A19" s="1">
         <v>43005</v>
       </c>
@@ -1866,13 +2025,16 @@
         <v>17</v>
       </c>
       <c r="C19">
+        <v>587</v>
+      </c>
+      <c r="D19">
         <v>960</v>
       </c>
-      <c r="D19">
+      <c r="E19">
         <v>1013</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:5">
       <c r="A20" s="1">
         <v>43005</v>
       </c>
@@ -1880,13 +2042,16 @@
         <v>18</v>
       </c>
       <c r="C20">
+        <v>746</v>
+      </c>
+      <c r="D20">
         <v>1351</v>
       </c>
-      <c r="D20">
+      <c r="E20">
         <v>1429</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:5">
       <c r="A21" s="1">
         <v>43005</v>
       </c>
@@ -1894,13 +2059,16 @@
         <v>19</v>
       </c>
       <c r="C21">
+        <v>686</v>
+      </c>
+      <c r="D21">
         <v>1355</v>
       </c>
-      <c r="D21">
+      <c r="E21">
         <v>1448</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:5">
       <c r="A22" s="1">
         <v>43005</v>
       </c>
@@ -1908,13 +2076,16 @@
         <v>20</v>
       </c>
       <c r="C22">
+        <v>520</v>
+      </c>
+      <c r="D22">
         <v>1068</v>
       </c>
-      <c r="D22">
+      <c r="E22">
         <v>1234</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:5">
       <c r="A23" s="1">
         <v>43005</v>
       </c>
@@ -1922,13 +2093,16 @@
         <v>21</v>
       </c>
       <c r="C23">
+        <v>412</v>
+      </c>
+      <c r="D23">
         <v>790</v>
       </c>
-      <c r="D23">
+      <c r="E23">
         <v>890</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:5">
       <c r="A24" s="1">
         <v>43005</v>
       </c>
@@ -1936,123 +2110,126 @@
         <v>22</v>
       </c>
       <c r="C24">
+        <v>259</v>
+      </c>
+      <c r="D24">
         <v>482</v>
       </c>
-      <c r="D24">
+      <c r="E24">
         <v>611</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:5">
       <c r="A25" s="1">
         <v>43370</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:5">
       <c r="A26" s="1">
         <v>43370</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:5">
       <c r="A27" s="1">
         <v>43370</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:5">
       <c r="A28" s="1">
         <v>43370</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:5">
       <c r="A29" s="1">
         <v>43370</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:5">
       <c r="A30" s="1">
         <v>43370</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:5">
       <c r="A31" s="1">
         <v>43370</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:5">
       <c r="A32" s="1">
         <v>43370</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:1">
       <c r="A33" s="1">
         <v>43370</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:1">
       <c r="A34" s="1">
         <v>43370</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:1">
       <c r="A35" s="1">
         <v>43370</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:1">
       <c r="A36" s="1">
         <v>43370</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:1">
       <c r="A37" s="1">
         <v>43370</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:1">
       <c r="A38" s="1">
         <v>43370</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:1">
       <c r="A39" s="1">
         <v>43370</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:1">
       <c r="A40" s="1">
         <v>43370</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:1">
       <c r="A41" s="1">
         <v>43370</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:1">
       <c r="A42" s="1">
         <v>43370</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:1">
       <c r="A43" s="1">
         <v>43370</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:1">
       <c r="A44" s="1">
         <v>43370</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:1">
       <c r="A45" s="1">
         <v>43370</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:1">
       <c r="A46" s="1">
         <v>43370</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:1">
       <c r="A47" s="1">
         <v>43370</v>
       </c>
@@ -2060,5 +2237,289 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="3.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="1">
+        <v>43080</v>
+      </c>
+      <c r="B1">
+        <v>0</v>
+      </c>
+      <c r="C1">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1">
+        <v>43080</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1">
+        <v>43080</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1">
+        <v>43080</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1">
+        <v>43080</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1">
+        <v>43080</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1">
+        <v>43080</v>
+      </c>
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="1">
+        <v>43080</v>
+      </c>
+      <c r="B8">
+        <v>7</v>
+      </c>
+      <c r="C8">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="1">
+        <v>43080</v>
+      </c>
+      <c r="B9">
+        <v>8</v>
+      </c>
+      <c r="C9">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="1">
+        <v>43080</v>
+      </c>
+      <c r="B10">
+        <v>9</v>
+      </c>
+      <c r="C10">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="1">
+        <v>43080</v>
+      </c>
+      <c r="B11">
+        <v>10</v>
+      </c>
+      <c r="C11">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="1">
+        <v>43080</v>
+      </c>
+      <c r="B12">
+        <v>11</v>
+      </c>
+      <c r="C12">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="1">
+        <v>43080</v>
+      </c>
+      <c r="B13">
+        <v>12</v>
+      </c>
+      <c r="C13">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="1">
+        <v>43080</v>
+      </c>
+      <c r="B14">
+        <v>13</v>
+      </c>
+      <c r="C14">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="1">
+        <v>43080</v>
+      </c>
+      <c r="B15">
+        <v>14</v>
+      </c>
+      <c r="C15">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="1">
+        <v>43080</v>
+      </c>
+      <c r="B16">
+        <v>15</v>
+      </c>
+      <c r="C16">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1">
+        <v>43080</v>
+      </c>
+      <c r="B17">
+        <v>16</v>
+      </c>
+      <c r="C17">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="1">
+        <v>43080</v>
+      </c>
+      <c r="B18">
+        <v>17</v>
+      </c>
+      <c r="C18">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="1">
+        <v>43080</v>
+      </c>
+      <c r="B19">
+        <v>18</v>
+      </c>
+      <c r="C19">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="1">
+        <v>43080</v>
+      </c>
+      <c r="B20">
+        <v>19</v>
+      </c>
+      <c r="C20">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="1">
+        <v>43080</v>
+      </c>
+      <c r="B21">
+        <v>20</v>
+      </c>
+      <c r="C21">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="1">
+        <v>43080</v>
+      </c>
+      <c r="B22">
+        <v>21</v>
+      </c>
+      <c r="C22">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="1">
+        <v>43080</v>
+      </c>
+      <c r="B23">
+        <v>22</v>
+      </c>
+      <c r="C23">
+        <v>259</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>